--- a/wash_P/ARM.xlsx
+++ b/wash_P/ARM.xlsx
@@ -86947,7 +86947,7 @@
         <v>0</v>
       </c>
       <c r="AMV27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMW27" t="n">
         <v>0</v>
